--- a/runs/run916/NotionalETEOutput916.xlsx
+++ b/runs/run916/NotionalETEOutput916.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_SOMERSAULT1_State_Update</t>
+    <t>Missile_HIGHWIND0_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT1_298.MISSILE_SOMERSAULT1_298</t>
+    <t>MISSILE_HIGHWIND0_192.MISSILE_HIGHWIND0_192</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT1</t>
+    <t>MISSILE_HIGHWIND0</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1430.257959935257</v>
+        <v>-1499.915897775494</v>
       </c>
       <c r="J2">
-        <v>2076.329843055598</v>
+        <v>1951.27625102967</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1453.99474731956</v>
+        <v>-1526.51342786103</v>
       </c>
       <c r="J3">
-        <v>1958.879069618034</v>
+        <v>2039.694497435352</v>
       </c>
       <c r="K3">
-        <v>308.436938383405</v>
+        <v>312.3342296656013</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1393.72306769995</v>
+        <v>-1387.639303506937</v>
       </c>
       <c r="J4">
-        <v>1910.108463640245</v>
+        <v>1860.399248792744</v>
       </c>
       <c r="K4">
-        <v>572.4518290592791</v>
+        <v>579.1579891633843</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1394.243087121177</v>
+        <v>-1433.483827318959</v>
       </c>
       <c r="J5">
-        <v>1796.147169501666</v>
+        <v>1794.450932079022</v>
       </c>
       <c r="K5">
-        <v>856.8060546641932</v>
+        <v>823.8476091037694</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1332.171512363867</v>
+        <v>-1420.674792510253</v>
       </c>
       <c r="J6">
-        <v>1770.954180917777</v>
+        <v>1720.397188767738</v>
       </c>
       <c r="K6">
-        <v>1143.406072181916</v>
+        <v>1080.123227096213</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1310.809257614644</v>
+        <v>-1402.828987921019</v>
       </c>
       <c r="J7">
-        <v>1790.826848785981</v>
+        <v>1710.880211715197</v>
       </c>
       <c r="K7">
-        <v>1351.265362452366</v>
+        <v>1364.706442949849</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1306.036558104933</v>
+        <v>-1288.701471431978</v>
       </c>
       <c r="J8">
-        <v>1674.769127718207</v>
+        <v>1672.732111956382</v>
       </c>
       <c r="K8">
-        <v>1638.120386277064</v>
+        <v>1524.889484032882</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-102.92688088021</v>
+        <v>-96.59785546694415</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1213.817902493315</v>
+        <v>-1279.604037740035</v>
       </c>
       <c r="J9">
-        <v>1595.25998136657</v>
+        <v>1592.074297713864</v>
       </c>
       <c r="K9">
-        <v>1736.047540424909</v>
+        <v>1805.720393027636</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>217.580918087114</v>
+        <v>219.7568490671534</v>
       </c>
       <c r="G10">
-        <v>-86.6861369212278</v>
+        <v>-80.82373484392053</v>
       </c>
       <c r="H10">
-        <v>881.28982647623</v>
+        <v>835.6164675274538</v>
       </c>
       <c r="I10">
-        <v>-1206.36327662548</v>
+        <v>-1243.010775714934</v>
       </c>
       <c r="J10">
-        <v>1666.398503945121</v>
+        <v>1654.304247666862</v>
       </c>
       <c r="K10">
-        <v>2098.217077838932</v>
+        <v>2031.186637430603</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>168.6459787535486</v>
+        <v>166.9503915113121</v>
       </c>
       <c r="G11">
-        <v>-64.80972364210211</v>
+        <v>-63.72018894843914</v>
       </c>
       <c r="H11">
-        <v>1063.810185242803</v>
+        <v>1029.84948429265</v>
       </c>
       <c r="I11">
-        <v>-1213.406975978488</v>
+        <v>-1239.787480852802</v>
       </c>
       <c r="J11">
-        <v>1625.574134891922</v>
+        <v>1596.812813773192</v>
       </c>
       <c r="K11">
-        <v>2107.923419347727</v>
+        <v>2080.656403869797</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>140.1745777295364</v>
+        <v>145.3218555114375</v>
       </c>
       <c r="G12">
-        <v>-52.27627551120705</v>
+        <v>-51.52707711372791</v>
       </c>
       <c r="H12">
-        <v>1224.553360907233</v>
+        <v>1229.071376344383</v>
       </c>
       <c r="I12">
-        <v>-1175.243644991114</v>
+        <v>-1146.751978502803</v>
       </c>
       <c r="J12">
-        <v>1475.52442550971</v>
+        <v>1543.43536513564</v>
       </c>
       <c r="K12">
-        <v>2269.560982805418</v>
+        <v>2246.303710895637</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>120.2489928208998</v>
+        <v>117.2305216122225</v>
       </c>
       <c r="G13">
-        <v>-35.62025658506611</v>
+        <v>-33.15973742461269</v>
       </c>
       <c r="H13">
-        <v>1316.014427148039</v>
+        <v>1207.286295471546</v>
       </c>
       <c r="I13">
-        <v>-1121.936520781658</v>
+        <v>-1077.712771654967</v>
       </c>
       <c r="J13">
-        <v>1505.822524516673</v>
+        <v>1530.093603078559</v>
       </c>
       <c r="K13">
-        <v>2470.48058862174</v>
+        <v>2431.681994393672</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>105.1581744940245</v>
+        <v>109.1807464806764</v>
       </c>
       <c r="G14">
-        <v>-16.78583199692611</v>
+        <v>-16.57963134492373</v>
       </c>
       <c r="H14">
-        <v>1304.653213620873</v>
+        <v>1295.303494293851</v>
       </c>
       <c r="I14">
-        <v>-1089.025258694315</v>
+        <v>-1141.974419396401</v>
       </c>
       <c r="J14">
-        <v>1382.459915121581</v>
+        <v>1346.551012942106</v>
       </c>
       <c r="K14">
-        <v>2612.656982720915</v>
+        <v>2600.581277687354</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>103.6018833396305</v>
+        <v>99.6410684038558</v>
       </c>
       <c r="G15">
-        <v>-0.9182837291343449</v>
+        <v>-0.9687876906298299</v>
       </c>
       <c r="H15">
-        <v>1426.53993787398</v>
+        <v>1434.108168103625</v>
       </c>
       <c r="I15">
-        <v>-1081.695943445771</v>
+        <v>-1045.087496109718</v>
       </c>
       <c r="J15">
-        <v>1370.822224634508</v>
+        <v>1342.926391694864</v>
       </c>
       <c r="K15">
-        <v>2743.139323359956</v>
+        <v>2851.355360139292</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>89.3940148493155</v>
+        <v>90.34564862204223</v>
       </c>
       <c r="G16">
-        <v>14.94956368930222</v>
+        <v>15.23999017275678</v>
       </c>
       <c r="H16">
-        <v>1486.786153670707</v>
+        <v>1420.660967372223</v>
       </c>
       <c r="I16">
-        <v>-1028.83844762929</v>
+        <v>-989.657836326652</v>
       </c>
       <c r="J16">
-        <v>1337.297412329141</v>
+        <v>1281.949580913901</v>
       </c>
       <c r="K16">
-        <v>2746.344052929785</v>
+        <v>2906.30431467686</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>88.84019742454348</v>
+        <v>82.90520845330612</v>
       </c>
       <c r="G17">
-        <v>32.5092596331217</v>
+        <v>33.41631681822815</v>
       </c>
       <c r="H17">
-        <v>1457.965564281333</v>
+        <v>1440.92276683931</v>
       </c>
       <c r="I17">
-        <v>-928.4183885114884</v>
+        <v>-962.2937845207039</v>
       </c>
       <c r="J17">
-        <v>1325.95997827755</v>
+        <v>1263.757684974179</v>
       </c>
       <c r="K17">
-        <v>2933.228121217114</v>
+        <v>2884.647943174861</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>83.26017033368596</v>
+        <v>82.43043825856263</v>
       </c>
       <c r="G18">
-        <v>50.85224315140591</v>
+        <v>48.50169192059435</v>
       </c>
       <c r="H18">
-        <v>1486.280283841768</v>
+        <v>1486.133153185008</v>
       </c>
       <c r="I18">
-        <v>-966.1529335141671</v>
+        <v>-960.1925751518507</v>
       </c>
       <c r="J18">
-        <v>1165.757186007365</v>
+        <v>1187.997231628255</v>
       </c>
       <c r="K18">
-        <v>3029.872483037839</v>
+        <v>3097.575703274333</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>80.7102550012237</v>
+        <v>76.36278593741177</v>
       </c>
       <c r="G19">
-        <v>62.72342843373263</v>
+        <v>65.02026461274055</v>
       </c>
       <c r="H19">
-        <v>1524.302000301373</v>
+        <v>1513.943298433695</v>
       </c>
       <c r="I19">
-        <v>-871.711886786745</v>
+        <v>-913.3343798222185</v>
       </c>
       <c r="J19">
-        <v>1215.422139718332</v>
+        <v>1168.434193648666</v>
       </c>
       <c r="K19">
-        <v>3131.591369264871</v>
+        <v>3061.158598240092</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>76.24676051520449</v>
+        <v>77.36061158037522</v>
       </c>
       <c r="G20">
-        <v>80.98354864859421</v>
+        <v>82.03051589062423</v>
       </c>
       <c r="H20">
-        <v>1558.128413827844</v>
+        <v>1530.361588141312</v>
       </c>
       <c r="I20">
-        <v>-832.3235714272181</v>
+        <v>-805.2316663507465</v>
       </c>
       <c r="J20">
-        <v>1147.18827205615</v>
+        <v>1071.278860384112</v>
       </c>
       <c r="K20">
-        <v>3307.105213357163</v>
+        <v>3139.317768098648</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>72.45383826048646</v>
+        <v>71.76857542518661</v>
       </c>
       <c r="G21">
-        <v>103.0071280167812</v>
+        <v>99.82315622325525</v>
       </c>
       <c r="H21">
-        <v>1628.132367030862</v>
+        <v>1557.237402206876</v>
       </c>
       <c r="I21">
-        <v>-771.9497120412634</v>
+        <v>-766.4084696803327</v>
       </c>
       <c r="J21">
-        <v>1113.806359638087</v>
+        <v>1094.516167091409</v>
       </c>
       <c r="K21">
-        <v>3149.702612007994</v>
+        <v>3071.793771204779</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>70.75896215372155</v>
+        <v>66.2587772321184</v>
       </c>
       <c r="G22">
-        <v>111.5780273297908</v>
+        <v>114.8792636667838</v>
       </c>
       <c r="H22">
-        <v>1545.777999113324</v>
+        <v>1613.31082836787</v>
       </c>
       <c r="I22">
-        <v>-711.5939617999441</v>
+        <v>-775.8339251879785</v>
       </c>
       <c r="J22">
-        <v>1054.660219086239</v>
+        <v>1025.445354639851</v>
       </c>
       <c r="K22">
-        <v>3207.47261700612</v>
+        <v>3048.409314814139</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>64.50020467534851</v>
+        <v>65.37848446274018</v>
       </c>
       <c r="G23">
-        <v>132.961902979378</v>
+        <v>135.6742094206673</v>
       </c>
       <c r="H23">
-        <v>1669.335193167271</v>
+        <v>1645.564407710216</v>
       </c>
       <c r="I23">
-        <v>-677.0697002471841</v>
+        <v>-682.101242707771</v>
       </c>
       <c r="J23">
-        <v>1001.444917784106</v>
+        <v>1025.874557850358</v>
       </c>
       <c r="K23">
-        <v>3082.65802484731</v>
+        <v>3335.517882370281</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>63.99947172253081</v>
+        <v>66.48135949225536</v>
       </c>
       <c r="G24">
-        <v>153.4358595560928</v>
+        <v>154.4444794986644</v>
       </c>
       <c r="H24">
-        <v>1628.211755856043</v>
+        <v>1599.80485567256</v>
       </c>
       <c r="I24">
-        <v>-648.7154869534984</v>
+        <v>-634.2785774432538</v>
       </c>
       <c r="J24">
-        <v>946.5208522013587</v>
+        <v>938.5925800059246</v>
       </c>
       <c r="K24">
-        <v>3117.111448692965</v>
+        <v>3325.597861900303</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>62.97495272441367</v>
+        <v>59.34393469840443</v>
       </c>
       <c r="G25">
-        <v>170.6561095627557</v>
+        <v>157.4294065269106</v>
       </c>
       <c r="H25">
-        <v>1679.195491428117</v>
+        <v>1754.94725495537</v>
       </c>
       <c r="I25">
-        <v>-621.7950481942376</v>
+        <v>-600.9298512199844</v>
       </c>
       <c r="J25">
-        <v>857.6890475993079</v>
+        <v>900.0423991666961</v>
       </c>
       <c r="K25">
-        <v>3132.76970421976</v>
+        <v>3224.361098258087</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>59.1665162071509</v>
+        <v>57.81067448670679</v>
       </c>
       <c r="G26">
-        <v>184.9279060479487</v>
+        <v>181.608093313455</v>
       </c>
       <c r="H26">
-        <v>1623.241020175725</v>
+        <v>1750.546976964395</v>
       </c>
       <c r="I26">
-        <v>-536.23309238365</v>
+        <v>-551.3283472840691</v>
       </c>
       <c r="J26">
-        <v>821.1924234361603</v>
+        <v>857.0082607778912</v>
       </c>
       <c r="K26">
-        <v>3004.722355447065</v>
+        <v>3072.369314537894</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>59.58905492676505</v>
+        <v>58.3140510868977</v>
       </c>
       <c r="G27">
-        <v>202.0542991158261</v>
+        <v>188.0515897824242</v>
       </c>
       <c r="H27">
-        <v>1765.870179511375</v>
+        <v>1682.524192169874</v>
       </c>
       <c r="I27">
-        <v>-495.6923303737208</v>
+        <v>-470.5823976668478</v>
       </c>
       <c r="J27">
-        <v>772.8092606223245</v>
+        <v>814.7731025162408</v>
       </c>
       <c r="K27">
-        <v>3017.306278390045</v>
+        <v>3194.552842110145</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>57.48853654579185</v>
+        <v>57.6935866557907</v>
       </c>
       <c r="G28">
-        <v>204.1398496767094</v>
+        <v>212.2353994696228</v>
       </c>
       <c r="H28">
-        <v>1751.212948784609</v>
+        <v>1653.556058674606</v>
       </c>
       <c r="I28">
-        <v>-429.7302255120841</v>
+        <v>-453.9852111322668</v>
       </c>
       <c r="J28">
-        <v>717.9509892816756</v>
+        <v>728.5438238362131</v>
       </c>
       <c r="K28">
-        <v>3025.194633864168</v>
+        <v>2969.026307736997</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>52.9920775645927</v>
+        <v>56.02818001118505</v>
       </c>
       <c r="G29">
-        <v>226.739038072046</v>
+        <v>223.3209054100465</v>
       </c>
       <c r="H29">
-        <v>1764.860411572643</v>
+        <v>1665.153865293572</v>
       </c>
       <c r="I29">
-        <v>-365.5348890524959</v>
+        <v>-375.5819679684422</v>
       </c>
       <c r="J29">
-        <v>703.7844666169538</v>
+        <v>710.8374237867853</v>
       </c>
       <c r="K29">
-        <v>2812.986797140421</v>
+        <v>2933.840867141477</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>55.85994649263726</v>
+        <v>51.86394345832895</v>
       </c>
       <c r="G30">
-        <v>255.5370083368352</v>
+        <v>253.9316367394013</v>
       </c>
       <c r="H30">
-        <v>1821.139220758394</v>
+        <v>1813.335087997681</v>
       </c>
       <c r="I30">
-        <v>-318.3917910958201</v>
+        <v>-314.6487528967641</v>
       </c>
       <c r="J30">
-        <v>638.5333118241501</v>
+        <v>624.3433902878146</v>
       </c>
       <c r="K30">
-        <v>2822.868662240194</v>
+        <v>2904.654371470911</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>50.44952616714055</v>
+        <v>55.00290230337275</v>
       </c>
       <c r="G31">
-        <v>272.2948285367491</v>
+        <v>272.4179944338445</v>
       </c>
       <c r="H31">
-        <v>1801.797679757413</v>
+        <v>1760.931734231676</v>
       </c>
       <c r="I31">
-        <v>-274.8865367445497</v>
+        <v>-274.3476341316675</v>
       </c>
       <c r="J31">
-        <v>609.4175598562982</v>
+        <v>575.0881975988871</v>
       </c>
       <c r="K31">
-        <v>2540.775728370128</v>
+        <v>2693.710120816306</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>50.77042656987292</v>
+        <v>51.39240461355309</v>
       </c>
       <c r="G32">
-        <v>281.417872163684</v>
+        <v>285.3180218326611</v>
       </c>
       <c r="H32">
-        <v>1869.084997596072</v>
+        <v>1784.132464140272</v>
       </c>
       <c r="I32">
-        <v>-209.9091318947158</v>
+        <v>-217.978928087562</v>
       </c>
       <c r="J32">
-        <v>554.3522221925925</v>
+        <v>525.2638675708516</v>
       </c>
       <c r="K32">
-        <v>2422.55096156977</v>
+        <v>2417.306089537282</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>52.6559251428035</v>
+        <v>49.84301246524549</v>
       </c>
       <c r="G33">
-        <v>303.9410898186868</v>
+        <v>288.557003387241</v>
       </c>
       <c r="H33">
-        <v>1709.393274504446</v>
+        <v>1737.096484610062</v>
       </c>
       <c r="I33">
-        <v>-152.2663609863915</v>
+        <v>-143.4597639611412</v>
       </c>
       <c r="J33">
-        <v>500.6626243242286</v>
+        <v>472.4903811550259</v>
       </c>
       <c r="K33">
-        <v>2268.053597580593</v>
+        <v>2445.574803180054</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>48.65816216002603</v>
+        <v>48.5881144134807</v>
       </c>
       <c r="G34">
-        <v>297.5411058394301</v>
+        <v>317.9174943318147</v>
       </c>
       <c r="H34">
-        <v>1800.589240152339</v>
+        <v>1771.181719482292</v>
       </c>
       <c r="I34">
-        <v>-80.34925016051817</v>
+        <v>-85.35329954796993</v>
       </c>
       <c r="J34">
-        <v>442.5562431629401</v>
+        <v>432.1563366008521</v>
       </c>
       <c r="K34">
-        <v>2204.589787942062</v>
+        <v>2114.901907036668</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>47.09922360861957</v>
+        <v>50.56377377679053</v>
       </c>
       <c r="G35">
-        <v>342.9193044240178</v>
+        <v>342.5242033067191</v>
       </c>
       <c r="H35">
-        <v>1828.239630348554</v>
+        <v>1813.660387262432</v>
       </c>
       <c r="I35">
-        <v>-18.63092408823463</v>
+        <v>-19.02611323557516</v>
       </c>
       <c r="J35">
-        <v>375.6964913303905</v>
+        <v>383.4985765240981</v>
       </c>
       <c r="K35">
-        <v>2114.94467285165</v>
+        <v>2110.608735379233</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>45.92887018971794</v>
+        <v>45.93742012206152</v>
       </c>
       <c r="G36">
-        <v>351.67517644853</v>
+        <v>332.7273855765698</v>
       </c>
       <c r="H36">
-        <v>1878.496991284826</v>
+        <v>1740.185322887057</v>
       </c>
       <c r="I36">
-        <v>46.8847967946632</v>
+        <v>49.21651029390782</v>
       </c>
       <c r="J36">
-        <v>353.3752321923185</v>
+        <v>343.0918889854759</v>
       </c>
       <c r="K36">
-        <v>1875.488423365539</v>
+        <v>1804.246152921351</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>44.96196081795838</v>
+        <v>45.86064428584726</v>
       </c>
       <c r="G37">
-        <v>345.7962186981381</v>
+        <v>375.6446626384749</v>
       </c>
       <c r="H37">
-        <v>1848.986619856601</v>
+        <v>1836.790912189147</v>
       </c>
       <c r="I37">
-        <v>112.1879694282019</v>
+        <v>117.7277628199605</v>
       </c>
       <c r="J37">
-        <v>285.1745913763907</v>
+        <v>302.1533131931469</v>
       </c>
       <c r="K37">
-        <v>1610.107793510909</v>
+        <v>1574.891814131948</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>47.69369244237877</v>
+        <v>45.85157918221654</v>
       </c>
       <c r="G38">
-        <v>394.7836898867827</v>
+        <v>384.6756877059288</v>
       </c>
       <c r="H38">
-        <v>1853.94779133888</v>
+        <v>1854.035579463741</v>
       </c>
       <c r="I38">
-        <v>176.4157549534625</v>
+        <v>181.2470890619442</v>
       </c>
       <c r="J38">
-        <v>255.709277343</v>
+        <v>236.8020438355322</v>
       </c>
       <c r="K38">
-        <v>1411.979105350377</v>
+        <v>1438.699101800933</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>45.21030539941615</v>
+        <v>46.32141376906926</v>
       </c>
       <c r="G39">
-        <v>399.8944987901818</v>
+        <v>411.6098084972916</v>
       </c>
       <c r="H39">
-        <v>1939.39198230095</v>
+        <v>1784.909858754422</v>
       </c>
       <c r="I39">
-        <v>256.1669419934024</v>
+        <v>251.0861220716545</v>
       </c>
       <c r="J39">
-        <v>195.7144099195663</v>
+        <v>190.0063268368245</v>
       </c>
       <c r="K39">
-        <v>1186.297071594278</v>
+        <v>1159.96585905509</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>42.41022699298059</v>
+        <v>44.7150095136256</v>
       </c>
       <c r="G40">
-        <v>398.8882594317811</v>
+        <v>395.8249156668098</v>
       </c>
       <c r="H40">
-        <v>1920.890109391426</v>
+        <v>1814.576663918633</v>
       </c>
       <c r="I40">
-        <v>330.4888023960979</v>
+        <v>330.7214880858622</v>
       </c>
       <c r="J40">
-        <v>149.7728005996305</v>
+        <v>148.1271280277261</v>
       </c>
       <c r="K40">
-        <v>860.5139838507091</v>
+        <v>913.6379180616042</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>41.94170729189133</v>
+        <v>43.35917432089796</v>
       </c>
       <c r="G41">
-        <v>433.9169084101851</v>
+        <v>420.0521870927216</v>
       </c>
       <c r="H41">
-        <v>1924.88344397137</v>
+        <v>1840.926898688402</v>
       </c>
       <c r="I41">
-        <v>418.3656965684315</v>
+        <v>391.1312530452563</v>
       </c>
       <c r="J41">
-        <v>106.8146825246787</v>
+        <v>104.3623646203501</v>
       </c>
       <c r="K41">
-        <v>639.2150733311001</v>
+        <v>600.8526764835133</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>43.78264930413434</v>
+        <v>42.70225930235669</v>
       </c>
       <c r="G42">
-        <v>440.0699334016632</v>
+        <v>428.4214488798227</v>
       </c>
       <c r="H42">
-        <v>1829.174386855044</v>
+        <v>1958.62333419118</v>
       </c>
       <c r="I42">
-        <v>476.9304464213471</v>
+        <v>459.2611034846182</v>
       </c>
       <c r="J42">
-        <v>53.89850502427745</v>
+        <v>53.37105399347546</v>
       </c>
       <c r="K42">
-        <v>326.2445414289697</v>
+        <v>329.78236707856</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>43.65240716528272</v>
+        <v>43.76092516435197</v>
       </c>
       <c r="G43">
-        <v>442.5918796591112</v>
+        <v>442.9433746672137</v>
       </c>
       <c r="H43">
-        <v>1844.152152927505</v>
+        <v>1944.517910974056</v>
       </c>
       <c r="I43">
-        <v>573.0005485845256</v>
+        <v>558.4063996301993</v>
       </c>
       <c r="J43">
-        <v>5.059528422311447</v>
+        <v>5.393575887651083</v>
       </c>
       <c r="K43">
-        <v>32.90819156250192</v>
+        <v>34.50715056264406</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>40.69804376803886</v>
+        <v>43.44850952845317</v>
       </c>
       <c r="G44">
-        <v>457.9705957199669</v>
+        <v>488.0469866838467</v>
       </c>
       <c r="H44">
-        <v>1919.345591373469</v>
+        <v>1869.567939741125</v>
       </c>
       <c r="I44">
-        <v>620.7765292462556</v>
+        <v>635.9345056460561</v>
       </c>
       <c r="J44">
-        <v>-41.68587473977848</v>
+        <v>-44.69527734554443</v>
       </c>
       <c r="K44">
-        <v>-279.138613791152</v>
+        <v>-281.5083684925381</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>39.59481772876686</v>
+        <v>42.85001291458207</v>
       </c>
       <c r="G45">
-        <v>506.8795367980824</v>
+        <v>504.235305934988</v>
       </c>
       <c r="H45">
-        <v>1896.671894777766</v>
+        <v>1878.952100698645</v>
       </c>
       <c r="I45">
-        <v>750.6948672388561</v>
+        <v>750.2488954028762</v>
       </c>
       <c r="J45">
-        <v>-92.61964883578871</v>
+        <v>-90.02846402639629</v>
       </c>
       <c r="K45">
-        <v>-644.8640493103375</v>
+        <v>-594.6472292199225</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>40.5810588742912</v>
+        <v>41.0572781772948</v>
       </c>
       <c r="G46">
-        <v>498.4453548807051</v>
+        <v>488.8744358154731</v>
       </c>
       <c r="H46">
-        <v>1903.156275216965</v>
+        <v>1847.199069383493</v>
       </c>
       <c r="I46">
-        <v>771.0960938248317</v>
+        <v>806.5373269845403</v>
       </c>
       <c r="J46">
-        <v>-136.3688734113432</v>
+        <v>-145.1916778267932</v>
       </c>
       <c r="K46">
-        <v>-953.4848714868501</v>
+        <v>-995.1960988654624</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>41.12056877324157</v>
+        <v>40.11064794595809</v>
       </c>
       <c r="G47">
-        <v>553.5807431692655</v>
+        <v>503.1681563456299</v>
       </c>
       <c r="H47">
-        <v>2017.950878172529</v>
+        <v>1949.770910831943</v>
       </c>
       <c r="I47">
-        <v>923.4570708643452</v>
+        <v>900.3131726951113</v>
       </c>
       <c r="J47">
-        <v>-183.6283353878408</v>
+        <v>-197.5434162701538</v>
       </c>
       <c r="K47">
-        <v>-1276.253561250328</v>
+        <v>-1313.118367569469</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>41.29069546996804</v>
+        <v>39.86839324153276</v>
       </c>
       <c r="G48">
-        <v>556.5804049581814</v>
+        <v>557.8822794239929</v>
       </c>
       <c r="H48">
-        <v>1966.191510891552</v>
+        <v>1981.353029424609</v>
       </c>
       <c r="I48">
-        <v>1023.421811581479</v>
+        <v>982.9351002806892</v>
       </c>
       <c r="J48">
-        <v>-229.603909765318</v>
+        <v>-247.9241501020095</v>
       </c>
       <c r="K48">
-        <v>-1684.323906392477</v>
+        <v>-1635.449182579573</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>40.47909355233153</v>
+        <v>39.90085554418842</v>
       </c>
       <c r="G49">
-        <v>582.5016016390485</v>
+        <v>552.224095435666</v>
       </c>
       <c r="H49">
-        <v>1872.200888559567</v>
+        <v>2023.322275329329</v>
       </c>
       <c r="I49">
-        <v>1081.985030128357</v>
+        <v>1117.865149294327</v>
       </c>
       <c r="J49">
-        <v>-273.1058944241677</v>
+        <v>-273.462915065868</v>
       </c>
       <c r="K49">
-        <v>-2133.771193310379</v>
+        <v>-2006.838832216798</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>38.8079980717514</v>
+        <v>37.9698424380794</v>
       </c>
       <c r="G50">
-        <v>572.3185163923973</v>
+        <v>578.474857940344</v>
       </c>
       <c r="H50">
-        <v>2051.409556789796</v>
+        <v>1859.839783481783</v>
       </c>
       <c r="I50">
-        <v>1179.738599720547</v>
+        <v>1105.629363931417</v>
       </c>
       <c r="J50">
-        <v>-327.603971024015</v>
+        <v>-346.2170600035599</v>
       </c>
       <c r="K50">
-        <v>-2416.895837169267</v>
+        <v>-2567.101301408393</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>39.5835318306446</v>
+        <v>39.83931908323551</v>
       </c>
       <c r="G51">
-        <v>597.7079046041433</v>
+        <v>592.126471866474</v>
       </c>
       <c r="H51">
-        <v>1949.449072960632</v>
+        <v>1898.855724114335</v>
       </c>
       <c r="I51">
-        <v>1230.784461184439</v>
+        <v>1248.906009343672</v>
       </c>
       <c r="J51">
-        <v>-380.3607970506478</v>
+        <v>-378.6048014425749</v>
       </c>
       <c r="K51">
-        <v>-3067.139226972185</v>
+        <v>-2810.16274122789</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>38.70031889098095</v>
+        <v>35.73196058317087</v>
       </c>
       <c r="G52">
-        <v>586.3856529475452</v>
+        <v>586.6576230393117</v>
       </c>
       <c r="H52">
-        <v>2056.925311673916</v>
+        <v>1963.161942894105</v>
       </c>
       <c r="I52">
-        <v>1363.52422528067</v>
+        <v>1402.657889363349</v>
       </c>
       <c r="J52">
-        <v>-429.5935875311465</v>
+        <v>-436.8170065467203</v>
       </c>
       <c r="K52">
-        <v>-3288.587346828149</v>
+        <v>-3362.187687145498</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>35.94815241043647</v>
+        <v>38.03199334811477</v>
       </c>
       <c r="G53">
-        <v>613.6407678458245</v>
+        <v>641.8250924059975</v>
       </c>
       <c r="H53">
-        <v>2024.748648057452</v>
+        <v>2032.198299052099</v>
       </c>
       <c r="I53">
-        <v>1490.94324245762</v>
+        <v>1416.014329657894</v>
       </c>
       <c r="J53">
-        <v>-479.345806361572</v>
+        <v>-487.0568006938523</v>
       </c>
       <c r="K53">
-        <v>-3928.764424934831</v>
+        <v>-3827.830609965271</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>36.47463454608789</v>
+        <v>38.3467570935727</v>
       </c>
       <c r="G54">
-        <v>632.044732662783</v>
+        <v>667.0880781126816</v>
       </c>
       <c r="H54">
-        <v>2014.873213157921</v>
+        <v>2021.074679385793</v>
       </c>
       <c r="I54">
-        <v>1521.05831054091</v>
+        <v>1506.093619559963</v>
       </c>
       <c r="J54">
-        <v>-508.6310675284916</v>
+        <v>-525.0303233766795</v>
       </c>
       <c r="K54">
-        <v>-4377.078466344436</v>
+        <v>-4434.926241254715</v>
       </c>
     </row>
   </sheetData>
